--- a/Correlation data/Correlations_Coral cover.xlsx
+++ b/Correlation data/Correlations_Coral cover.xlsx
@@ -448,7 +448,7 @@
         <v>36.58536585365854</v>
       </c>
       <c r="D5">
-        <v>3.562423138244983</v>
+        <v>3.562423138244982</v>
       </c>
     </row>
     <row r="6">
